--- a/data/dbo101.xlsx
+++ b/data/dbo101.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="69">
   <si>
     <t>Время</t>
   </si>
@@ -32,49 +32,139 @@
     <t>Преподаватель</t>
   </si>
   <si>
-    <t>13.12.23, Wed</t>
+    <t>01.12.23, пт</t>
+  </si>
+  <si>
+    <t>11:50 - 13:20</t>
+  </si>
+  <si>
+    <t>Русский язык и культура речи</t>
+  </si>
+  <si>
+    <t>761нг НГ</t>
+  </si>
+  <si>
+    <t>Занятие семинарского типа</t>
+  </si>
+  <si>
+    <t>Цховребова Б.Ф.</t>
+  </si>
+  <si>
+    <t>13:50 - 15:20</t>
+  </si>
+  <si>
+    <t>711нг НГ</t>
+  </si>
+  <si>
+    <t>Лекция</t>
+  </si>
+  <si>
+    <t>04.12.23, пн</t>
+  </si>
+  <si>
+    <t>Высшая математика</t>
+  </si>
+  <si>
+    <t>735нг НГ</t>
+  </si>
+  <si>
+    <t>Рынкова А.А.</t>
+  </si>
+  <si>
+    <t>15:30 - 17:00</t>
+  </si>
+  <si>
+    <t>832нг НГ</t>
+  </si>
+  <si>
+    <t>05.12.23, вт</t>
+  </si>
+  <si>
+    <t>Правоведение</t>
+  </si>
+  <si>
+    <t>710нг НГ</t>
+  </si>
+  <si>
+    <t>Тюнис И.О.</t>
+  </si>
+  <si>
+    <t>746нг НГ</t>
+  </si>
+  <si>
+    <t>Архитектуры операционных систем</t>
+  </si>
+  <si>
+    <t>811нг НГ</t>
+  </si>
+  <si>
+    <t>Лабораторная работа</t>
+  </si>
+  <si>
+    <t>Жданов Э.Р.</t>
+  </si>
+  <si>
+    <t>17:10 - 18:40</t>
+  </si>
+  <si>
+    <t>826нг НГ</t>
+  </si>
+  <si>
+    <t>06.12.23, ср</t>
   </si>
   <si>
     <t>10:10 - 11:40</t>
   </si>
   <si>
-    <t>Physics</t>
+    <t>Физика</t>
   </si>
   <si>
     <t>827нг НГ</t>
   </si>
   <si>
-    <t>Лекция</t>
-  </si>
-  <si>
     <t>Байтимерова Л.С.</t>
   </si>
   <si>
-    <t>11:50 - 13:20</t>
-  </si>
-  <si>
     <t>729нг НГ</t>
   </si>
   <si>
-    <t>Занятие семинарского типа</t>
-  </si>
-  <si>
-    <t>15.12.23, Fri</t>
-  </si>
-  <si>
-    <t>Russian Language and Speech Culture</t>
-  </si>
-  <si>
-    <t>761нг НГ</t>
-  </si>
-  <si>
-    <t>Цховребова Б.Ф.</t>
-  </si>
-  <si>
-    <t>13:50 - 15:20</t>
-  </si>
-  <si>
-    <t>711нг НГ</t>
+    <t>07.12.23, чт</t>
+  </si>
+  <si>
+    <t>08:30 - 10:00</t>
+  </si>
+  <si>
+    <t>Технология программирования</t>
+  </si>
+  <si>
+    <t>812нг НГ</t>
+  </si>
+  <si>
+    <t>Копылова Д.М.</t>
+  </si>
+  <si>
+    <t>829нг НГ</t>
+  </si>
+  <si>
+    <t>08.12.23, пт</t>
+  </si>
+  <si>
+    <t>Экономика</t>
+  </si>
+  <si>
+    <t>Назарова Е.В.</t>
+  </si>
+  <si>
+    <t>716нг НГ</t>
+  </si>
+  <si>
+    <t>11.12.23, пн</t>
+  </si>
+  <si>
+    <t>13.12.23, ср</t>
+  </si>
+  <si>
+    <t>15.12.23, пт</t>
   </si>
   <si>
     <t>14:35</t>
@@ -86,91 +176,52 @@
     <t>ИМ(зач)</t>
   </si>
   <si>
-    <t>18.12.23, Mon</t>
-  </si>
-  <si>
-    <t>Higher Mathematics</t>
-  </si>
-  <si>
-    <t>735нг НГ</t>
-  </si>
-  <si>
-    <t>Рынкова А.А.</t>
-  </si>
-  <si>
-    <t>15:30 - 17:00</t>
-  </si>
-  <si>
-    <t>832нг НГ</t>
-  </si>
-  <si>
-    <t>19.12.23, Tue</t>
-  </si>
-  <si>
-    <t>Law</t>
-  </si>
-  <si>
-    <t>710нг НГ</t>
-  </si>
-  <si>
-    <t>Тюнис И.О.</t>
-  </si>
-  <si>
-    <t>746нг НГ</t>
-  </si>
-  <si>
-    <t>Архитектуры операционных систем</t>
-  </si>
-  <si>
-    <t>811нг НГ</t>
-  </si>
-  <si>
-    <t>Лабораторная работа</t>
-  </si>
-  <si>
-    <t>Жданов Э.Р.</t>
-  </si>
-  <si>
-    <t>17:10 - 18:40</t>
-  </si>
-  <si>
-    <t>826нг НГ</t>
+    <t>18.12.23, пн</t>
+  </si>
+  <si>
+    <t>19.12.23, вт</t>
   </si>
   <si>
     <t>17:55</t>
   </si>
   <si>
-    <t>20.12.23, Wed</t>
-  </si>
-  <si>
-    <t>21.12.23, Thu</t>
-  </si>
-  <si>
-    <t>08:30 - 10:00</t>
-  </si>
-  <si>
-    <t>Technology of Programming</t>
-  </si>
-  <si>
-    <t>812нг НГ</t>
-  </si>
-  <si>
-    <t>Копылова Д.М.</t>
-  </si>
-  <si>
-    <t>829нг НГ</t>
-  </si>
-  <si>
-    <t>22.12.23, Fri</t>
-  </si>
-  <si>
-    <t>Economics</t>
-  </si>
-  <si>
-    <t>Назарова Е.В.</t>
-  </si>
-  <si>
-    <t>716нг НГ</t>
+    <t>20.12.23, ср</t>
+  </si>
+  <si>
+    <t>21.12.23, чт</t>
+  </si>
+  <si>
+    <t>22.12.23, пт</t>
+  </si>
+  <si>
+    <t>10.01.24, ср</t>
+  </si>
+  <si>
+    <t>15.01.24, пн</t>
+  </si>
+  <si>
+    <t>14:00</t>
+  </si>
+  <si>
+    <t>НГ</t>
+  </si>
+  <si>
+    <t>ИМ(экз)</t>
+  </si>
+  <si>
+    <t>18.01.24, чт</t>
+  </si>
+  <si>
+    <t>10:10</t>
+  </si>
+  <si>
+    <t>805нг НГ</t>
+  </si>
+  <si>
+    <t>24.01.24, ср</t>
+  </si>
+  <si>
+    <t>736нг НГ</t>
   </si>
 </sst>
 </file>
@@ -521,7 +572,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -601,7 +652,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E6" t="s">
         <v>17</v>
@@ -618,7 +669,7 @@
         <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
         <v>17</v>
@@ -628,128 +679,116 @@
       <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
       </c>
-      <c r="C10" t="s">
-        <v>25</v>
-      </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>27</v>
       </c>
-      <c r="B11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>28</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>29</v>
       </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
         <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D14" t="s">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s">
         <v>37</v>
       </c>
     </row>
@@ -758,111 +797,111 @@
         <v>38</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E18" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D20" t="s">
         <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
         <v>13</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E24" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -872,53 +911,477 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B26" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C26" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
         <v>13</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
         <v>9</v>
       </c>
       <c r="E27" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>18</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" t="s">
+        <v>21</v>
+      </c>
+      <c r="C37" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" t="s">
+        <v>52</v>
+      </c>
+      <c r="E41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B44" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>39</v>
+      </c>
+      <c r="C46" t="s">
         <v>40</v>
       </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
+      <c r="D46" t="s">
+        <v>27</v>
+      </c>
+      <c r="E46" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>32</v>
+      </c>
+      <c r="B47" t="s">
+        <v>39</v>
+      </c>
+      <c r="C47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+      <c r="C49" t="s">
+        <v>16</v>
+      </c>
+      <c r="D49" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>18</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" t="s">
+        <v>52</v>
+      </c>
+      <c r="E51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>32</v>
+      </c>
+      <c r="B53" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" t="s">
+        <v>34</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E54" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" t="s">
+        <v>62</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>39</v>
+      </c>
+      <c r="C58" t="s">
+        <v>66</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
